--- a/expandialsticks-sequence.xlsx
+++ b/expandialsticks-sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.daniel\workspace\ExpanDialSticks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C74416-247A-42E8-9E66-E154EE15EE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09577CF4-1F02-4C56-A35F-F5ED6214D101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{60E3E7D7-20DE-4CFA-ABFC-F97E51E39363}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
